--- a/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6384498224987821</v>
+        <v>-0.6685386359297684</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.973857341328098</v>
+        <v>-2.974104543335713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.006738142098777</v>
+        <v>-1.301044886343281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.177937572236164</v>
+        <v>-0.9555356485823308</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4388356338818436</v>
+        <v>-0.4443818377169023</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.592364699447732</v>
+        <v>-0.5829181240946187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4176858692931461</v>
+        <v>-0.4907257700193381</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4300636938285042</v>
+        <v>-0.3578364695827342</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.762359208013913</v>
+        <v>1.729082346050504</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.237087995258292</v>
+        <v>1.325177159453679</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.892142007601158</v>
+        <v>1.81656178508774</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.61408237336245</v>
+        <v>1.715612241844041</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.74379279439172</v>
+        <v>2.962141048591516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4844621769039012</v>
+        <v>0.5745171175915503</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.941224394571187</v>
+        <v>1.609496237806914</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.315349459042333</v>
+        <v>1.462780293981692</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.2783841553370431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7033864539710031</v>
+        <v>0.7033864539710034</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2646788837230795</v>
@@ -749,7 +749,7 @@
         <v>0.1443680414058215</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3160878157802894</v>
+        <v>0.3160878157802895</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.214481327030039</v>
+        <v>-1.98604928804915</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7398118098697268</v>
+        <v>-0.9120142852649513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9515636962252889</v>
+        <v>-1.006849786111959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6223570402038134</v>
+        <v>-0.8523738358261784</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6514959908626395</v>
+        <v>-0.6087071886990586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2069291631820506</v>
+        <v>-0.229581933317878</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3935648698436813</v>
+        <v>-0.3918422964938474</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2527651049401491</v>
+        <v>-0.2582930507077645</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6187936947076785</v>
+        <v>0.8448482400110593</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.930631859361292</v>
+        <v>2.88031686515552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.589275950905082</v>
+        <v>1.578972288838863</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.026368234727701</v>
+        <v>1.878445064244846</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3771355368900006</v>
+        <v>0.505287255903719</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.259514963989522</v>
+        <v>1.296441558645756</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.190136080744837</v>
+        <v>1.296024429314078</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.345014532815364</v>
+        <v>1.302972025556173</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6490930826169911</v>
+        <v>0.9242824182140104</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.835932860975816</v>
+        <v>-3.084990276335775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.80441057595626</v>
+        <v>-0.7156345876308675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.652781102374263</v>
+        <v>-0.6344533485110657</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1540521260829902</v>
+        <v>0.3142414985118487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7790352896370113</v>
+        <v>-0.7626864981248064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4709392589034976</v>
+        <v>-0.4595243258381709</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1970728694530873</v>
+        <v>-0.2287487241830594</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.042179180309658</v>
+        <v>4.133767217449412</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1920894929242159</v>
+        <v>0.1680791217643195</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.05345132860665</v>
+        <v>2.109120354210575</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.786740883140719</v>
+        <v>2.742854994135387</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.884546765863469</v>
+        <v>5.31626734958044</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1933256008241502</v>
+        <v>0.2162423449657096</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.679040425369128</v>
+        <v>2.834823059634712</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.89534129236742</v>
+        <v>1.721490716768008</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.3166076739304264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.717769833040781</v>
+        <v>1.71776983304078</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03637246331748311</v>
@@ -949,7 +949,7 @@
         <v>-0.109179324639869</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6773135112316413</v>
+        <v>0.6773135112316409</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.178392330981755</v>
+        <v>-1.124381657033899</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6850435215967995</v>
+        <v>-0.7974972934061177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.856191384583354</v>
+        <v>-1.790633619037179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1345098727558641</v>
+        <v>0.153791800757704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4806721348234641</v>
+        <v>-0.4850874724552577</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.293668959961085</v>
+        <v>-0.3277149066252864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4867936219562859</v>
+        <v>-0.5016985454789169</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01154556442784663</v>
+        <v>0.02041961451749326</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.241244305523775</v>
+        <v>1.208637385088244</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.964952574168628</v>
+        <v>1.935680545421534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.141716607372189</v>
+        <v>1.177715869839424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.046313697195613</v>
+        <v>3.135040688459789</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9939849626538783</v>
+        <v>0.9472323656508355</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.615197585167333</v>
+        <v>1.550351645811885</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.549381846230619</v>
+        <v>0.609851371583515</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.625524422129477</v>
+        <v>1.715221262239014</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.2192169732448543</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9998589725017899</v>
+        <v>0.9998589725017906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.235798251101906</v>
@@ -1049,7 +1049,7 @@
         <v>0.1076308051470025</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4298087320358401</v>
+        <v>0.4298087320358406</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2179975097634058</v>
+        <v>-0.2041482664471615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7913063920182654</v>
+        <v>-0.8960927537946676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5310334745694519</v>
+        <v>-0.4816098699748104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1992248862391044</v>
+        <v>0.267518955072048</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1040906960779764</v>
+        <v>-0.1025224870553173</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2564768624288139</v>
+        <v>-0.2691396063930201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2252830549987114</v>
+        <v>-0.2044832624802568</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.07156971569418079</v>
+        <v>0.08990823901014222</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.163924018632682</v>
+        <v>1.1397893417042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8335951272650444</v>
+        <v>0.851500697914071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9113784945393721</v>
+        <v>0.910237214561226</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.697718507839557</v>
+        <v>1.782022849457091</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7871328993670569</v>
+        <v>0.753544346393312</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3351710371404421</v>
+        <v>0.3570808311674705</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5528238428944331</v>
+        <v>0.5355067487042472</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9067259660573175</v>
+        <v>0.9210741551135696</v>
       </c>
     </row>
     <row r="19">
